--- a/TC_CreateNewLead/Main.rvl.xlsx
+++ b/TC_CreateNewLead/Main.rvl.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="RVL" sheetId="1" r:id="rId2"/>
+    <sheet name="Cleanup" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="125">
   <si>
     <t>Flow</t>
   </si>
@@ -325,6 +326,69 @@
   </si>
   <si>
     <t>CreateNewLead</t>
+  </si>
+  <si>
+    <t>RVL</t>
+  </si>
+  <si>
+    <t>DoPlaySheet</t>
+  </si>
+  <si>
+    <t>Cleanup</t>
+  </si>
+  <si>
+    <t>Navigator</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>FullName</t>
+  </si>
+  <si>
+    <t>LeadFullName</t>
+  </si>
+  <si>
+    <t>GetInnerText</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>MyVar</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>LastResult</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>SetOutputValue</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>GetOutputValue</t>
+  </si>
+  <si>
+    <t>defValue</t>
   </si>
 </sst>
 </file>
@@ -345,7 +409,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="226">
+  <borders count="682">
     <border>
       <left/>
       <right/>
@@ -578,11 +642,467 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="682">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -809,6 +1329,462 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="223" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="224" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="225" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="226" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="227" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="228" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="229" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="230" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="231" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="232" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="233" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="234" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="235" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="236" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="237" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="238" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="239" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="240" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="241" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="242" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="243" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="244" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="245" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="246" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="247" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="248" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="249" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="250" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="251" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="252" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="253" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="254" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="255" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="256" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="257" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="258" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="259" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="260" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="261" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="262" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="263" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="264" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="265" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="266" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="267" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="268" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="269" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="270" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="271" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="272" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="273" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="274" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="275" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="276" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="277" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="278" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="279" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="280" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="281" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="282" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="283" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="284" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="285" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="286" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="287" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="288" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="289" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="290" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="291" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="292" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="293" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="294" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="295" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="296" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="297" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="298" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="299" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="300" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="301" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="302" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="303" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="304" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="305" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="306" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="307" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="308" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="309" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="310" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="311" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="312" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="313" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="314" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="315" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="316" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="317" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="318" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="319" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="320" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="321" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="322" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="323" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="324" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="325" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="326" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="327" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="328" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="329" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="330" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="331" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="332" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="333" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="334" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="335" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="336" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="337" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="338" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="339" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="340" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="341" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="342" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="343" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="344" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="345" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="346" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="347" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="348" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="349" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="350" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="351" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="352" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="353" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="354" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="355" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="356" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="357" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="358" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="359" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="360" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="361" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="362" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="363" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="364" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="365" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="366" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="367" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="368" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="369" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="370" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="371" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="372" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="373" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="374" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="375" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="376" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="377" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="378" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="379" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="380" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="381" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="382" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="383" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="384" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="385" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="386" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="387" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="388" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="389" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="390" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="391" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="392" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="393" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="394" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="395" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="396" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="397" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="398" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="399" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="400" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="401" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="402" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="403" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="404" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="405" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="406" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="407" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="408" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="409" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="410" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="411" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="412" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="413" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="414" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="415" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="416" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="417" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="418" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="419" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="420" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="421" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="422" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="423" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="424" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="425" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="426" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="427" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="428" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="429" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="430" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="431" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="432" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="433" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="434" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="435" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="436" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="437" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="438" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="439" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="440" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="441" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="442" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="443" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="444" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="445" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="446" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="447" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="448" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="449" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="450" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="451" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="452" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="453" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="454" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="455" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="456" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="457" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="458" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="459" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="460" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="461" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="462" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="463" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="464" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="465" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="466" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="467" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="468" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="469" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="470" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="471" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="472" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="473" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="474" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="475" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="476" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="477" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="478" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="479" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="480" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="481" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="482" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="483" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="484" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="485" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="486" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="487" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="488" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="489" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="490" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="491" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="492" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="493" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="494" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="495" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="496" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="497" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="498" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="499" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="500" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="501" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="502" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="503" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="504" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="505" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="506" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="507" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="508" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="509" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="510" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="511" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="512" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="513" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="514" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="515" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="516" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="517" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="518" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="519" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="520" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="521" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="522" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="523" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="524" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="525" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="526" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="527" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="528" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="529" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="530" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="531" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="532" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="533" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="534" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="535" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="536" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="537" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="538" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="539" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="540" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="541" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="542" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="543" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="544" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="545" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="546" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="547" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="548" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="549" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="550" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="551" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="552" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="553" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="554" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="555" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="556" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="557" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="558" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="559" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="560" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="561" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="562" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="563" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="564" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="565" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="566" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="567" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="568" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="569" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="570" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="571" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="572" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="573" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="574" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="575" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="576" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="577" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="578" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="579" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="580" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="581" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="582" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="583" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="584" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="585" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="586" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="587" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="588" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="589" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="590" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="591" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="592" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="593" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="594" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="595" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="596" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="597" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="598" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="599" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="600" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="601" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="602" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="603" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="604" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="605" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="606" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="607" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="608" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="609" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="610" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="611" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="612" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="613" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="614" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="615" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="616" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="617" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="618" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="619" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="620" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="621" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="622" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="623" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="624" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="625" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="626" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="627" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="628" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="629" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="630" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="631" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="632" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="633" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="634" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="635" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="636" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="637" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="638" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="639" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="640" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="641" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="642" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="643" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="644" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="645" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="646" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="647" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="648" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="649" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="650" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="651" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="652" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="653" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="654" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="655" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="656" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="657" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="658" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="659" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="660" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="661" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="662" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="663" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="664" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="665" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="666" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="667" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="668" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="669" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="670" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="671" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="672" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="673" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="674" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="675" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="676" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="677" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="678" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="679" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="680" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="681" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -818,7 +1794,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H53"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -868,68 +1844,52 @@
       <c r="H2" s="16"/>
     </row>
     <row r="3">
-      <c r="A3" s="193" t="s">
+      <c r="A3" s="668"/>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="669"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>85</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>86</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="199" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="199" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>87</v>
-      </c>
-      <c r="C4" s="204"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="204"/>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="200" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="204"/>
-      <c r="D5" s="204"/>
-      <c r="E5" s="204"/>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="201" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
       </c>
       <c r="C6" s="204"/>
       <c r="D6" s="204"/>
@@ -942,342 +1902,332 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="205"/>
+      <c r="A7" s="200" t="s">
+        <v>7</v>
+      </c>
       <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="204"/>
+      <c r="D7" s="204"/>
+      <c r="E7" s="204"/>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="201" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="204"/>
+      <c r="D8" s="204"/>
+      <c r="E8" s="204"/>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="205"/>
+      <c r="B9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="206"/>
-      <c r="B8" t="s">
+    <row r="10">
+      <c r="A10" s="206"/>
+      <c r="B10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="202" t="s">
+    <row r="11">
+      <c r="A11" s="202" t="s">
         <v>83</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>84</v>
       </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="203"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="212" t="s">
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="203"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="212" t="s">
         <v>68</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>93</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>86</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
         <v>94</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F13" t="s">
         <v>12</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="220"/>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="221"/>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="14">
-      <c r="A14" s="222"/>
+      <c r="A14" s="220"/>
       <c r="B14" t="s">
         <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="223"/>
+      <c r="A15" s="221"/>
       <c r="B15" t="s">
         <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F15" t="s">
         <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="224"/>
+      <c r="A16" s="222"/>
       <c r="B16" t="s">
         <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F16" t="s">
         <v>56</v>
       </c>
       <c r="G16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="223"/>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="218" t="s">
+    <row r="18">
+      <c r="A18" s="224"/>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="218" t="s">
         <v>83</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>84</v>
       </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="219"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18" t="s">
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="219"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C21" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D21" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="24"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26" t="s">
+      <c r="E21" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C22" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D22" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E22" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F22" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G22" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="32"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34" t="s">
+      <c r="H22" s="32"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="33"/>
+      <c r="B23" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C23" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D23" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E23" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F23" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G23" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="40"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="41"/>
-      <c r="B22" s="42" t="s">
+      <c r="H23" s="40"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="41"/>
+      <c r="B24" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C24" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="44" t="s">
+      <c r="D24" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="45" t="s">
+      <c r="E24" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="F24" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="47" t="s">
+      <c r="G24" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="48"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="49"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="56"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="58" t="s">
+      <c r="H24" s="48"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="49"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="56"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C26" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="60" t="s">
+      <c r="D26" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="64"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="161" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="162" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26" t="s">
-        <v>87</v>
-      </c>
+      <c r="E26" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="64"/>
     </row>
     <row r="27">
-      <c r="A27" s="177"/>
+      <c r="A27" s="161" t="s">
+        <v>7</v>
+      </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
@@ -1293,14 +2243,14 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="163" t="s">
+      <c r="A28" s="162" t="s">
         <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
         <v>24</v>
@@ -1312,18 +2262,16 @@
         <v>86</v>
       </c>
       <c r="G28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="164" t="s">
-        <v>7</v>
-      </c>
+      <c r="A29" s="177"/>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
@@ -1339,14 +2287,14 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="165" t="s">
+      <c r="A30" s="163" t="s">
         <v>7</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
@@ -1358,47 +2306,57 @@
         <v>86</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="180"/>
+      <c r="A31" s="164" t="s">
+        <v>7</v>
+      </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G31" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="183"/>
+      <c r="A32" s="165" t="s">
+        <v>7</v>
+      </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F32" t="s">
         <v>86</v>
       </c>
       <c r="G32" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="184"/>
+      <c r="A33" s="180"/>
       <c r="B33" t="s">
         <v>3</v>
       </c>
@@ -1415,11 +2373,11 @@
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="185"/>
+      <c r="A34" s="183"/>
       <c r="B34" t="s">
         <v>42</v>
       </c>
@@ -1430,288 +2388,989 @@
         <v>86</v>
       </c>
       <c r="G34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="184"/>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="181"/>
-    </row>
     <row r="36">
-      <c r="A36" s="171" t="s">
-        <v>7</v>
-      </c>
+      <c r="A36" s="185"/>
       <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="181"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="171" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
         <v>3</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>35</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D38" t="s">
         <v>22</v>
       </c>
-      <c r="E36" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="186"/>
-      <c r="B37" t="s">
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="186"/>
+      <c r="B39" t="s">
         <v>3</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>53</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D39" t="s">
         <v>54</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E39" t="s">
         <v>55</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F39" t="s">
         <v>56</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G39" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="187"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="65"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="72"/>
-    </row>
     <row r="40">
-      <c r="A40" s="73"/>
-      <c r="B40" s="74" t="s">
+      <c r="A40" s="662"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="663"/>
+      <c r="B41" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="75" t="s">
+      <c r="C41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="187"/>
+      <c r="B42" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" t="s">
+        <v>116</v>
+      </c>
+      <c r="G42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="664"/>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" t="s">
+        <v>120</v>
+      </c>
+      <c r="F43" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="671"/>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" s="80"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="81"/>
-      <c r="B41" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="84" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="H41" s="88"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="89"/>
-      <c r="B42" s="90" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="F42" s="94" t="s">
-        <v>86</v>
-      </c>
-      <c r="G42" s="95" t="s">
-        <v>88</v>
-      </c>
-      <c r="H42" s="96"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="97" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="98" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="99" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="100" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43" s="101" t="s">
-        <v>41</v>
-      </c>
-      <c r="F43" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="G43" s="103" t="s">
-        <v>64</v>
-      </c>
-      <c r="H43" s="104"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="172" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" t="s">
-        <v>7</v>
-      </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="F44" t="s">
         <v>12</v>
       </c>
       <c r="G44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="674"/>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" t="s">
+        <v>116</v>
+      </c>
+      <c r="G45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="665"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="65"/>
+      <c r="B47" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="F47" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="H47" s="72"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="113"/>
+      <c r="B48" s="114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="115" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="116" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="118" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="119" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="120"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="121"/>
+      <c r="B49" s="122"/>
+      <c r="C49" s="123"/>
+      <c r="D49" s="124"/>
+      <c r="E49" s="125"/>
+      <c r="F49" s="126"/>
+      <c r="G49" s="127"/>
+      <c r="H49" s="128"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="129"/>
+      <c r="B50" s="130"/>
+      <c r="C50" s="131"/>
+      <c r="D50" s="132"/>
+      <c r="E50" s="133"/>
+      <c r="F50" s="134"/>
+      <c r="G50" s="135"/>
+      <c r="H50" s="136"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="137"/>
+      <c r="B51" s="138"/>
+      <c r="C51" s="139"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="141"/>
+      <c r="F51" s="142"/>
+      <c r="G51" s="143"/>
+      <c r="H51" s="144"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="145"/>
+      <c r="B52" s="146"/>
+      <c r="C52" s="147"/>
+      <c r="D52" s="148"/>
+      <c r="E52" s="149"/>
+      <c r="F52" s="150"/>
+      <c r="G52" s="151"/>
+      <c r="H52" s="152"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="153"/>
+      <c r="B53" s="154"/>
+      <c r="C53" s="155"/>
+      <c r="D53" s="156"/>
+      <c r="E53" s="157"/>
+      <c r="F53" s="158"/>
+      <c r="G53" s="159"/>
+      <c r="H53" s="160"/>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H58"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" customWidth="true"/>
+    <col min="2" max="2" width="8.453125" customWidth="true"/>
+    <col min="3" max="3" width="12.453125" customWidth="true"/>
+    <col min="4" max="4" width="12.453125" customWidth="true"/>
+    <col min="5" max="5" width="12.453125" customWidth="true"/>
+    <col min="6" max="6" width="12.453125" customWidth="true"/>
+    <col min="7" max="7" width="12.453125" customWidth="true"/>
+    <col min="8" max="8" width="10.453125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="226" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="227" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="228" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="229" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="230" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="231" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="232" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="233" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="234"/>
+      <c r="B2" s="235"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="240"/>
+      <c r="H2" s="241"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="677"/>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="678"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="679"/>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="681"/>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="680"/>
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="647" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="242"/>
+      <c r="B9" s="243" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="244" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="245" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="246" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="247" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="248" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="249"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="250"/>
+      <c r="B10" s="251" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="252" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="253" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="254" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="255" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="256" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="257"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="258"/>
+      <c r="B11" s="259" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="260" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="261" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="262" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="263" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="264" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="265"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="266"/>
+      <c r="B12" s="267" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="268" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="269" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="270" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="271" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="272" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="273"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="274" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="275" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="276"/>
+      <c r="D13" s="277"/>
+      <c r="E13" s="278" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="279" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="280" t="s">
         <v>65</v>
       </c>
+      <c r="H13" s="281"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="282"/>
+      <c r="B14" s="283" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="284" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="285" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="286"/>
+      <c r="F14" s="287"/>
+      <c r="G14" s="288"/>
+      <c r="H14" s="289"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="290"/>
+      <c r="B15" s="291" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="292" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="293" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="294"/>
+      <c r="F15" s="295"/>
+      <c r="G15" s="296"/>
+      <c r="H15" s="297"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="298"/>
+      <c r="B16" s="299"/>
+      <c r="C16" s="300"/>
+      <c r="D16" s="301"/>
+      <c r="E16" s="302"/>
+      <c r="F16" s="303"/>
+      <c r="G16" s="304"/>
+      <c r="H16" s="305"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="306"/>
+      <c r="B17" s="307"/>
+      <c r="C17" s="308"/>
+      <c r="D17" s="309"/>
+      <c r="E17" s="310"/>
+      <c r="F17" s="311"/>
+      <c r="G17" s="312"/>
+      <c r="H17" s="313"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="314"/>
+      <c r="B18" s="315"/>
+      <c r="C18" s="316"/>
+      <c r="D18" s="317"/>
+      <c r="E18" s="318"/>
+      <c r="F18" s="319"/>
+      <c r="G18" s="320"/>
+      <c r="H18" s="321"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="322"/>
+      <c r="B19" s="323"/>
+      <c r="C19" s="324"/>
+      <c r="D19" s="325"/>
+      <c r="E19" s="326"/>
+      <c r="F19" s="327"/>
+      <c r="G19" s="328"/>
+      <c r="H19" s="329"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="330"/>
+      <c r="B20" s="331"/>
+      <c r="C20" s="332"/>
+      <c r="D20" s="333"/>
+      <c r="E20" s="334"/>
+      <c r="F20" s="335"/>
+      <c r="G20" s="336"/>
+      <c r="H20" s="337"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="338"/>
+      <c r="B21" s="339"/>
+      <c r="C21" s="340"/>
+      <c r="D21" s="341"/>
+      <c r="E21" s="342"/>
+      <c r="F21" s="343"/>
+      <c r="G21" s="344"/>
+      <c r="H21" s="345"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="346"/>
+      <c r="B22" s="347"/>
+      <c r="C22" s="348"/>
+      <c r="D22" s="349"/>
+      <c r="E22" s="350"/>
+      <c r="F22" s="351"/>
+      <c r="G22" s="352"/>
+      <c r="H22" s="353"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="354"/>
+      <c r="B23" s="355"/>
+      <c r="C23" s="356"/>
+      <c r="D23" s="357"/>
+      <c r="E23" s="358"/>
+      <c r="F23" s="359"/>
+      <c r="G23" s="360"/>
+      <c r="H23" s="361"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="362"/>
+      <c r="B24" s="363"/>
+      <c r="C24" s="364"/>
+      <c r="D24" s="365"/>
+      <c r="E24" s="366"/>
+      <c r="F24" s="367"/>
+      <c r="G24" s="368"/>
+      <c r="H24" s="369"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="370"/>
+      <c r="B25" s="371"/>
+      <c r="C25" s="372"/>
+      <c r="D25" s="373"/>
+      <c r="E25" s="374"/>
+      <c r="F25" s="375"/>
+      <c r="G25" s="376"/>
+      <c r="H25" s="377"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="378"/>
+      <c r="B26" s="379"/>
+      <c r="C26" s="380"/>
+      <c r="D26" s="381"/>
+      <c r="E26" s="382"/>
+      <c r="F26" s="383"/>
+      <c r="G26" s="384"/>
+      <c r="H26" s="385"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="386"/>
+      <c r="B27" s="387"/>
+      <c r="C27" s="388"/>
+      <c r="D27" s="389"/>
+      <c r="E27" s="390"/>
+      <c r="F27" s="391"/>
+      <c r="G27" s="392"/>
+      <c r="H27" s="393"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="394"/>
+      <c r="B28" s="395"/>
+      <c r="C28" s="396"/>
+      <c r="D28" s="397"/>
+      <c r="E28" s="398"/>
+      <c r="F28" s="399"/>
+      <c r="G28" s="400"/>
+      <c r="H28" s="401"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="402"/>
+      <c r="B29" s="403"/>
+      <c r="C29" s="404"/>
+      <c r="D29" s="405"/>
+      <c r="E29" s="406"/>
+      <c r="F29" s="407"/>
+      <c r="G29" s="408"/>
+      <c r="H29" s="409"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="410"/>
+      <c r="B30" s="411"/>
+      <c r="C30" s="412"/>
+      <c r="D30" s="413"/>
+      <c r="E30" s="414"/>
+      <c r="F30" s="415"/>
+      <c r="G30" s="416"/>
+      <c r="H30" s="417"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="418"/>
+      <c r="B31" s="419"/>
+      <c r="C31" s="420"/>
+      <c r="D31" s="421"/>
+      <c r="E31" s="422"/>
+      <c r="F31" s="423"/>
+      <c r="G31" s="424"/>
+      <c r="H31" s="425"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="426"/>
+      <c r="B32" s="427"/>
+      <c r="C32" s="428"/>
+      <c r="D32" s="429"/>
+      <c r="E32" s="430"/>
+      <c r="F32" s="431"/>
+      <c r="G32" s="432"/>
+      <c r="H32" s="433"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="434"/>
+      <c r="B33" s="435"/>
+      <c r="C33" s="436"/>
+      <c r="D33" s="437"/>
+      <c r="E33" s="438"/>
+      <c r="F33" s="439"/>
+      <c r="G33" s="440"/>
+      <c r="H33" s="441"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="442"/>
+      <c r="B34" s="443"/>
+      <c r="C34" s="444"/>
+      <c r="D34" s="445"/>
+      <c r="E34" s="446"/>
+      <c r="F34" s="447"/>
+      <c r="G34" s="448"/>
+      <c r="H34" s="449"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="450"/>
+      <c r="B35" s="451"/>
+      <c r="C35" s="452"/>
+      <c r="D35" s="453"/>
+      <c r="E35" s="454"/>
+      <c r="F35" s="455"/>
+      <c r="G35" s="456"/>
+      <c r="H35" s="457"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="458"/>
+      <c r="B36" s="459"/>
+      <c r="C36" s="460"/>
+      <c r="D36" s="461"/>
+      <c r="E36" s="462"/>
+      <c r="F36" s="463"/>
+      <c r="G36" s="464"/>
+      <c r="H36" s="465"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="466"/>
+      <c r="B37" s="467"/>
+      <c r="C37" s="468"/>
+      <c r="D37" s="469"/>
+      <c r="E37" s="470"/>
+      <c r="F37" s="471"/>
+      <c r="G37" s="472"/>
+      <c r="H37" s="473"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="474"/>
+      <c r="B38" s="475"/>
+      <c r="C38" s="476"/>
+      <c r="D38" s="477"/>
+      <c r="E38" s="478"/>
+      <c r="F38" s="479"/>
+      <c r="G38" s="480"/>
+      <c r="H38" s="481"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="482"/>
+      <c r="B39" s="483"/>
+      <c r="C39" s="484"/>
+      <c r="D39" s="485"/>
+      <c r="E39" s="486"/>
+      <c r="F39" s="487"/>
+      <c r="G39" s="488"/>
+      <c r="H39" s="489"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="490"/>
+      <c r="B40" s="491"/>
+      <c r="C40" s="492"/>
+      <c r="D40" s="493"/>
+      <c r="E40" s="494"/>
+      <c r="F40" s="495"/>
+      <c r="G40" s="496"/>
+      <c r="H40" s="497"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="498"/>
+      <c r="B41" s="499"/>
+      <c r="C41" s="500"/>
+      <c r="D41" s="501"/>
+      <c r="E41" s="502"/>
+      <c r="F41" s="503"/>
+      <c r="G41" s="504"/>
+      <c r="H41" s="505"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="506"/>
+      <c r="B42" s="507"/>
+      <c r="C42" s="508"/>
+      <c r="D42" s="509"/>
+      <c r="E42" s="510"/>
+      <c r="F42" s="511"/>
+      <c r="G42" s="512"/>
+      <c r="H42" s="513"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="514"/>
+      <c r="B43" s="515"/>
+      <c r="C43" s="516"/>
+      <c r="D43" s="517"/>
+      <c r="E43" s="518"/>
+      <c r="F43" s="519"/>
+      <c r="G43" s="520"/>
+      <c r="H43" s="521"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="522"/>
+      <c r="B44" s="523"/>
+      <c r="C44" s="524"/>
+      <c r="D44" s="525"/>
+      <c r="E44" s="526"/>
+      <c r="F44" s="527"/>
+      <c r="G44" s="528"/>
+      <c r="H44" s="529"/>
     </row>
     <row r="45">
-      <c r="A45" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="106" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="107" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="108" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="109" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="110" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="111" t="s">
-        <v>7</v>
-      </c>
-      <c r="H45" s="112"/>
+      <c r="A45" s="530"/>
+      <c r="B45" s="531"/>
+      <c r="C45" s="532"/>
+      <c r="D45" s="533"/>
+      <c r="E45" s="534"/>
+      <c r="F45" s="535"/>
+      <c r="G45" s="536"/>
+      <c r="H45" s="537"/>
     </row>
     <row r="46">
-      <c r="A46" s="191" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" t="s">
-        <v>7</v>
-      </c>
+      <c r="A46" s="538"/>
+      <c r="B46" s="539"/>
+      <c r="C46" s="540"/>
+      <c r="D46" s="541"/>
+      <c r="E46" s="542"/>
+      <c r="F46" s="543"/>
+      <c r="G46" s="544"/>
+      <c r="H46" s="545"/>
     </row>
     <row r="47">
-      <c r="A47" s="113"/>
-      <c r="B47" s="114"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="117"/>
-      <c r="F47" s="118"/>
-      <c r="G47" s="119"/>
-      <c r="H47" s="120"/>
+      <c r="A47" s="546"/>
+      <c r="B47" s="547"/>
+      <c r="C47" s="548"/>
+      <c r="D47" s="549"/>
+      <c r="E47" s="550"/>
+      <c r="F47" s="551"/>
+      <c r="G47" s="552"/>
+      <c r="H47" s="553"/>
     </row>
     <row r="48">
-      <c r="A48" s="121"/>
-      <c r="B48" s="122"/>
-      <c r="C48" s="123"/>
-      <c r="D48" s="124"/>
-      <c r="E48" s="125"/>
-      <c r="F48" s="126"/>
-      <c r="G48" s="127"/>
-      <c r="H48" s="128"/>
+      <c r="A48" s="554"/>
+      <c r="B48" s="555"/>
+      <c r="C48" s="556"/>
+      <c r="D48" s="557"/>
+      <c r="E48" s="558"/>
+      <c r="F48" s="559"/>
+      <c r="G48" s="560"/>
+      <c r="H48" s="561"/>
     </row>
     <row r="49">
-      <c r="A49" s="129"/>
-      <c r="B49" s="130"/>
-      <c r="C49" s="131"/>
-      <c r="D49" s="132"/>
-      <c r="E49" s="133"/>
-      <c r="F49" s="134"/>
-      <c r="G49" s="135"/>
-      <c r="H49" s="136"/>
+      <c r="A49" s="562"/>
+      <c r="B49" s="563"/>
+      <c r="C49" s="564"/>
+      <c r="D49" s="565"/>
+      <c r="E49" s="566"/>
+      <c r="F49" s="567"/>
+      <c r="G49" s="568"/>
+      <c r="H49" s="569"/>
     </row>
     <row r="50">
-      <c r="A50" s="137"/>
-      <c r="B50" s="138"/>
-      <c r="C50" s="139"/>
-      <c r="D50" s="140"/>
-      <c r="E50" s="141"/>
-      <c r="F50" s="142"/>
-      <c r="G50" s="143"/>
-      <c r="H50" s="144"/>
+      <c r="A50" s="570"/>
+      <c r="B50" s="571"/>
+      <c r="C50" s="572"/>
+      <c r="D50" s="573"/>
+      <c r="E50" s="574"/>
+      <c r="F50" s="575"/>
+      <c r="G50" s="576"/>
+      <c r="H50" s="577"/>
     </row>
     <row r="51">
-      <c r="A51" s="145"/>
-      <c r="B51" s="146"/>
-      <c r="C51" s="147"/>
-      <c r="D51" s="148"/>
-      <c r="E51" s="149"/>
-      <c r="F51" s="150"/>
-      <c r="G51" s="151"/>
-      <c r="H51" s="152"/>
+      <c r="A51" s="578"/>
+      <c r="B51" s="579"/>
+      <c r="C51" s="580"/>
+      <c r="D51" s="581"/>
+      <c r="E51" s="582"/>
+      <c r="F51" s="583"/>
+      <c r="G51" s="584"/>
+      <c r="H51" s="585"/>
     </row>
     <row r="52">
-      <c r="A52" s="153"/>
-      <c r="B52" s="154"/>
-      <c r="C52" s="155"/>
-      <c r="D52" s="156"/>
-      <c r="E52" s="157"/>
-      <c r="F52" s="158"/>
-      <c r="G52" s="159"/>
-      <c r="H52" s="160"/>
+      <c r="A52" s="586"/>
+      <c r="B52" s="587"/>
+      <c r="C52" s="588"/>
+      <c r="D52" s="589"/>
+      <c r="E52" s="590"/>
+      <c r="F52" s="591"/>
+      <c r="G52" s="592"/>
+      <c r="H52" s="593"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="594"/>
+      <c r="B53" s="595"/>
+      <c r="C53" s="596"/>
+      <c r="D53" s="597"/>
+      <c r="E53" s="598"/>
+      <c r="F53" s="599"/>
+      <c r="G53" s="600"/>
+      <c r="H53" s="601"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="602"/>
+      <c r="B54" s="603"/>
+      <c r="C54" s="604"/>
+      <c r="D54" s="605"/>
+      <c r="E54" s="606"/>
+      <c r="F54" s="607"/>
+      <c r="G54" s="608"/>
+      <c r="H54" s="609"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="610"/>
+      <c r="B55" s="611"/>
+      <c r="C55" s="612"/>
+      <c r="D55" s="613"/>
+      <c r="E55" s="614"/>
+      <c r="F55" s="615"/>
+      <c r="G55" s="616"/>
+      <c r="H55" s="617"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="618"/>
+      <c r="B56" s="619"/>
+      <c r="C56" s="620"/>
+      <c r="D56" s="621"/>
+      <c r="E56" s="622"/>
+      <c r="F56" s="623"/>
+      <c r="G56" s="624"/>
+      <c r="H56" s="625"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="626"/>
+      <c r="B57" s="627"/>
+      <c r="C57" s="628"/>
+      <c r="D57" s="629"/>
+      <c r="E57" s="630"/>
+      <c r="F57" s="631"/>
+      <c r="G57" s="632"/>
+      <c r="H57" s="633"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="634"/>
+      <c r="B58" s="635"/>
+      <c r="C58" s="636"/>
+      <c r="D58" s="637"/>
+      <c r="E58" s="638"/>
+      <c r="F58" s="639"/>
+      <c r="G58" s="640"/>
+      <c r="H58" s="641"/>
     </row>
   </sheetData>
 </worksheet>

--- a/TC_CreateNewLead/Main.rvl.xlsx
+++ b/TC_CreateNewLead/Main.rvl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="131">
   <si>
     <t>Flow</t>
   </si>
@@ -389,6 +389,24 @@
   </si>
   <si>
     <t>defValue</t>
+  </si>
+  <si>
+    <t>Sfdc</t>
+  </si>
+  <si>
+    <t>Launch</t>
+  </si>
+  <si>
+    <t>OpenApp</t>
+  </si>
+  <si>
+    <t>NavigateModule</t>
+  </si>
+  <si>
+    <t>SelectListView</t>
+  </si>
+  <si>
+    <t>SearchTable</t>
   </si>
 </sst>
 </file>
@@ -409,7 +427,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="682">
+  <borders count="711">
     <border>
       <left/>
       <right/>
@@ -1098,11 +1116,40 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="682">
+  <cellXfs count="711">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -1785,6 +1832,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="679" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="680" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="681" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="682" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="683" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="684" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="685" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="686" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="687" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="688" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="689" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="690" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="691" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="692" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="693" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="694" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="695" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="696" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="697" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="698" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="699" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="700" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="701" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="702" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="703" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="704" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="705" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="706" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="707" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="708" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="709" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="710" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1794,7 +1870,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H49"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -2012,222 +2088,252 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="221"/>
+      <c r="A15" s="218" t="s">
+        <v>83</v>
+      </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="222"/>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" t="s">
-        <v>64</v>
-      </c>
+      <c r="A16" s="219"/>
     </row>
     <row r="17">
-      <c r="A17" s="223"/>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" t="s">
-        <v>101</v>
-      </c>
+      <c r="A17" s="17"/>
+      <c r="B17" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="24"/>
     </row>
     <row r="18">
-      <c r="A18" s="224"/>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" t="s">
-        <v>101</v>
-      </c>
+      <c r="A18" s="25"/>
+      <c r="B18" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="32"/>
     </row>
     <row r="19">
-      <c r="A19" s="218" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" t="s">
-        <v>7</v>
-      </c>
+      <c r="A19" s="33"/>
+      <c r="B19" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="40"/>
     </row>
     <row r="20">
-      <c r="A20" s="219"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="48"/>
     </row>
     <row r="21">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="49"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="56"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="24"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26" t="s">
+      <c r="C22" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="64"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="161" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="32"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="33"/>
-      <c r="B23" s="34" t="s">
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="162" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="40"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="41"/>
-      <c r="B24" s="42" t="s">
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="177"/>
+      <c r="B25" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="48"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="56"/>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="58" t="s">
+      <c r="A26" s="163" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="64"/>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="161" t="s">
+      <c r="A27" s="164" t="s">
         <v>7</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
@@ -2243,14 +2349,14 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="162" t="s">
+      <c r="A28" s="165" t="s">
         <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
         <v>24</v>
@@ -2262,407 +2368,317 @@
         <v>86</v>
       </c>
       <c r="G28" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="177"/>
+      <c r="A29" s="180"/>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="163" t="s">
-        <v>7</v>
-      </c>
+      <c r="A30" s="183"/>
       <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E30" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s">
         <v>86</v>
       </c>
       <c r="G30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="164" t="s">
-        <v>7</v>
-      </c>
+      <c r="A31" s="184"/>
       <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="165" t="s">
-        <v>7</v>
-      </c>
+      <c r="A32" s="185"/>
       <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s">
         <v>86</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="180"/>
-      <c r="B33" t="s">
+      <c r="A33" s="181"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="171" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
         <v>3</v>
       </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="183"/>
-      <c r="B34" t="s">
-        <v>42</v>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="G34" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="184"/>
+      <c r="A35" s="186"/>
       <c r="B35" t="s">
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E35" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="G35" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="185"/>
-      <c r="B36" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36" t="s">
-        <v>86</v>
-      </c>
-      <c r="G36" t="s">
-        <v>52</v>
-      </c>
+      <c r="A36" s="662"/>
     </row>
     <row r="37">
-      <c r="A37" s="181"/>
+      <c r="A37" s="663"/>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="171" t="s">
-        <v>7</v>
-      </c>
+      <c r="A38" s="187"/>
       <c r="B38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="F38" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="G38" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="186"/>
+      <c r="A39" s="664"/>
       <c r="B39" t="s">
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="E39" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="G39" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="662"/>
+      <c r="A40" s="671"/>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="663"/>
+      <c r="A41" s="674"/>
       <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="665"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="65"/>
+      <c r="B43" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C41" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" t="s">
-        <v>111</v>
-      </c>
-      <c r="E41" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="187"/>
-      <c r="B42" t="s">
-        <v>115</v>
-      </c>
-      <c r="F42" t="s">
-        <v>116</v>
-      </c>
-      <c r="G42" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="664"/>
-      <c r="B43" t="s">
+      <c r="C43" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="F43" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="H43" s="72"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="113"/>
+      <c r="B44" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="C43" t="s">
-        <v>118</v>
-      </c>
-      <c r="D43" t="s">
-        <v>119</v>
-      </c>
-      <c r="E43" t="s">
-        <v>120</v>
-      </c>
-      <c r="F43" t="s">
-        <v>116</v>
-      </c>
-      <c r="G43" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="671"/>
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" t="s">
-        <v>121</v>
-      </c>
-      <c r="E44" t="s">
-        <v>122</v>
-      </c>
-      <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" t="s">
-        <v>110</v>
-      </c>
+      <c r="C44" s="115" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="116" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="118" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="119" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="120"/>
     </row>
     <row r="45">
-      <c r="A45" s="674"/>
-      <c r="B45" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" t="s">
-        <v>38</v>
-      </c>
-      <c r="F45" t="s">
-        <v>116</v>
-      </c>
-      <c r="G45" t="s">
-        <v>109</v>
-      </c>
+      <c r="A45" s="121"/>
+      <c r="B45" s="122"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="124"/>
+      <c r="E45" s="125"/>
+      <c r="F45" s="126"/>
+      <c r="G45" s="127"/>
+      <c r="H45" s="128"/>
     </row>
     <row r="46">
-      <c r="A46" s="665"/>
+      <c r="A46" s="129"/>
+      <c r="B46" s="130"/>
+      <c r="C46" s="131"/>
+      <c r="D46" s="132"/>
+      <c r="E46" s="133"/>
+      <c r="F46" s="134"/>
+      <c r="G46" s="135"/>
+      <c r="H46" s="136"/>
     </row>
     <row r="47">
-      <c r="A47" s="65"/>
-      <c r="B47" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47" s="68" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="F47" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="H47" s="72"/>
+      <c r="A47" s="137"/>
+      <c r="B47" s="138"/>
+      <c r="C47" s="139"/>
+      <c r="D47" s="140"/>
+      <c r="E47" s="141"/>
+      <c r="F47" s="142"/>
+      <c r="G47" s="143"/>
+      <c r="H47" s="144"/>
     </row>
     <row r="48">
-      <c r="A48" s="113"/>
-      <c r="B48" s="114" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="115" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" s="116" t="s">
-        <v>108</v>
-      </c>
-      <c r="E48" s="117" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" s="118" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" s="119" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" s="120"/>
+      <c r="A48" s="145"/>
+      <c r="B48" s="146"/>
+      <c r="C48" s="147"/>
+      <c r="D48" s="148"/>
+      <c r="E48" s="149"/>
+      <c r="F48" s="150"/>
+      <c r="G48" s="151"/>
+      <c r="H48" s="152"/>
     </row>
     <row r="49">
-      <c r="A49" s="121"/>
-      <c r="B49" s="122"/>
-      <c r="C49" s="123"/>
-      <c r="D49" s="124"/>
-      <c r="E49" s="125"/>
-      <c r="F49" s="126"/>
-      <c r="G49" s="127"/>
-      <c r="H49" s="128"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="129"/>
-      <c r="B50" s="130"/>
-      <c r="C50" s="131"/>
-      <c r="D50" s="132"/>
-      <c r="E50" s="133"/>
-      <c r="F50" s="134"/>
-      <c r="G50" s="135"/>
-      <c r="H50" s="136"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="137"/>
-      <c r="B51" s="138"/>
-      <c r="C51" s="139"/>
-      <c r="D51" s="140"/>
-      <c r="E51" s="141"/>
-      <c r="F51" s="142"/>
-      <c r="G51" s="143"/>
-      <c r="H51" s="144"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="145"/>
-      <c r="B52" s="146"/>
-      <c r="C52" s="147"/>
-      <c r="D52" s="148"/>
-      <c r="E52" s="149"/>
-      <c r="F52" s="150"/>
-      <c r="G52" s="151"/>
-      <c r="H52" s="152"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="153"/>
-      <c r="B53" s="154"/>
-      <c r="C53" s="155"/>
-      <c r="D53" s="156"/>
-      <c r="E53" s="157"/>
-      <c r="F53" s="158"/>
-      <c r="G53" s="159"/>
-      <c r="H53" s="160"/>
+      <c r="A49" s="153"/>
+      <c r="B49" s="154"/>
+      <c r="C49" s="155"/>
+      <c r="D49" s="156"/>
+      <c r="E49" s="157"/>
+      <c r="F49" s="158"/>
+      <c r="G49" s="159"/>
+      <c r="H49" s="160"/>
     </row>
   </sheetData>
 </worksheet>
@@ -2808,10 +2824,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="244" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="D9" s="245" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="E9" s="246" t="s">
         <v>15</v>
@@ -2830,10 +2846,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="252" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="D10" s="253" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="E10" s="254" t="s">
         <v>18</v>
@@ -2852,10 +2868,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="260" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="D11" s="261" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="E11" s="262" t="s">
         <v>38</v>

--- a/TC_CreateNewLead/Main.rvl.xlsx
+++ b/TC_CreateNewLead/Main.rvl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="132">
   <si>
     <t>Flow</t>
   </si>
@@ -407,6 +407,9 @@
   </si>
   <si>
     <t>SearchTable</t>
+  </si>
+  <si>
+    <t>SelectComboboxItem</t>
   </si>
 </sst>
 </file>
@@ -427,7 +430,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="711">
+  <borders count="713">
     <border>
       <left/>
       <right/>
@@ -1145,11 +1148,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="711">
+  <cellXfs count="713">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -1861,6 +1866,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="708" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="709" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="710" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="711" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="712" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2377,10 +2384,10 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="E29" t="s">
         <v>49</v>
@@ -2393,7 +2400,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="183"/>
+      <c r="A30" s="711"/>
       <c r="B30" t="s">
         <v>42</v>
       </c>
@@ -2413,10 +2420,10 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="E31" t="s">
         <v>49</v>
@@ -2429,7 +2436,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="185"/>
+      <c r="A32" s="712"/>
       <c r="B32" t="s">
         <v>42</v>
       </c>

--- a/TC_CreateNewLead/Main.rvl.xlsx
+++ b/TC_CreateNewLead/Main.rvl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="140">
   <si>
     <t>Flow</t>
   </si>
@@ -410,6 +410,30 @@
   </si>
   <si>
     <t>SelectComboboxItem</t>
+  </si>
+  <si>
+    <t>DoEnsureVisible</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Silver Spring</t>
+  </si>
+  <si>
+    <t>vAlign</t>
+  </si>
+  <si>
+    <t>hAlign</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>GetText</t>
   </si>
 </sst>
 </file>
@@ -430,7 +454,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="713">
+  <borders count="719">
     <border>
       <left/>
       <right/>
@@ -1150,11 +1174,17 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="713">
+  <cellXfs count="719">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -1868,6 +1898,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="710" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="711" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="712" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="713" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="714" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="715" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="716" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="717" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="718" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1877,7 +1913,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H53"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -2333,9 +2369,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="164" t="s">
-        <v>7</v>
-      </c>
+      <c r="A27" s="713"/>
       <c r="B27" t="s">
         <v>3</v>
       </c>
@@ -2343,7 +2377,7 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
@@ -2356,7 +2390,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="165" t="s">
+      <c r="A28" s="164" t="s">
         <v>7</v>
       </c>
       <c r="B28" t="s">
@@ -2366,326 +2400,416 @@
         <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="180"/>
+      <c r="A29" s="165" t="s">
+        <v>7</v>
+      </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="F29" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="716"/>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" t="s">
         <v>12</v>
       </c>
-      <c r="G29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="711"/>
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" t="s">
-        <v>86</v>
-      </c>
       <c r="G30" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="184"/>
+      <c r="A31" s="714" t="s">
+        <v>7</v>
+      </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="715" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="180"/>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
         <v>125</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D33" t="s">
         <v>131</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E33" t="s">
         <v>49</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F33" t="s">
         <v>12</v>
       </c>
-      <c r="G31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="712"/>
-      <c r="B32" t="s">
+      <c r="G33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="711"/>
+      <c r="B34" t="s">
         <v>42</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E34" t="s">
         <v>50</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F34" t="s">
         <v>86</v>
       </c>
-      <c r="G32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="181"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="171" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" t="s">
-        <v>7</v>
-      </c>
       <c r="G34" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="186"/>
+      <c r="A35" s="184"/>
       <c r="B35" t="s">
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="662"/>
+      <c r="A36" s="712"/>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="663"/>
-      <c r="B37" t="s">
+      <c r="A37" s="181"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="171" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
         <v>3</v>
       </c>
-      <c r="C37" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" t="s">
-        <v>111</v>
-      </c>
-      <c r="E37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="187"/>
-      <c r="B38" t="s">
-        <v>115</v>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>116</v>
+        <v>7</v>
       </c>
       <c r="G38" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="664"/>
+      <c r="A39" s="186"/>
       <c r="B39" t="s">
         <v>3</v>
       </c>
       <c r="C39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="662"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="663"/>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="187"/>
+      <c r="B42" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" t="s">
+        <v>116</v>
+      </c>
+      <c r="G42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="664"/>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
         <v>118</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D43" t="s">
         <v>119</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E43" t="s">
         <v>120</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F43" t="s">
         <v>116</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G43" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="671"/>
-      <c r="B40" t="s">
+    <row r="44">
+      <c r="A44" s="671"/>
+      <c r="B44" t="s">
         <v>3</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C44" t="s">
         <v>8</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D44" t="s">
         <v>121</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E44" t="s">
         <v>122</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F44" t="s">
         <v>12</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G44" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="674"/>
-      <c r="B41" t="s">
+    <row r="45">
+      <c r="A45" s="674"/>
+      <c r="B45" t="s">
         <v>42</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E45" t="s">
         <v>38</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F45" t="s">
         <v>116</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G45" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="665"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="65"/>
-      <c r="B43" s="66" t="s">
+    <row r="46">
+      <c r="A46" s="665"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="65"/>
+      <c r="B47" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="67" t="s">
+      <c r="C47" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="D43" s="68" t="s">
+      <c r="D47" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="E43" s="69" t="s">
+      <c r="E47" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="F43" s="70" t="s">
+      <c r="F47" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="G43" s="71" t="s">
+      <c r="G47" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="H43" s="72"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="113"/>
-      <c r="B44" s="114" t="s">
+      <c r="H47" s="72"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="113"/>
+      <c r="B48" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="115" t="s">
+      <c r="C48" s="115" t="s">
         <v>107</v>
       </c>
-      <c r="D44" s="116" t="s">
+      <c r="D48" s="116" t="s">
         <v>108</v>
       </c>
-      <c r="E44" s="117" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="118" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" s="119" t="s">
-        <v>7</v>
-      </c>
-      <c r="H44" s="120"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="121"/>
-      <c r="B45" s="122"/>
-      <c r="C45" s="123"/>
-      <c r="D45" s="124"/>
-      <c r="E45" s="125"/>
-      <c r="F45" s="126"/>
-      <c r="G45" s="127"/>
-      <c r="H45" s="128"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="129"/>
-      <c r="B46" s="130"/>
-      <c r="C46" s="131"/>
-      <c r="D46" s="132"/>
-      <c r="E46" s="133"/>
-      <c r="F46" s="134"/>
-      <c r="G46" s="135"/>
-      <c r="H46" s="136"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="137"/>
-      <c r="B47" s="138"/>
-      <c r="C47" s="139"/>
-      <c r="D47" s="140"/>
-      <c r="E47" s="141"/>
-      <c r="F47" s="142"/>
-      <c r="G47" s="143"/>
-      <c r="H47" s="144"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="145"/>
-      <c r="B48" s="146"/>
-      <c r="C48" s="147"/>
-      <c r="D48" s="148"/>
-      <c r="E48" s="149"/>
-      <c r="F48" s="150"/>
-      <c r="G48" s="151"/>
-      <c r="H48" s="152"/>
+      <c r="E48" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="118" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="119" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="120"/>
     </row>
     <row r="49">
-      <c r="A49" s="153"/>
-      <c r="B49" s="154"/>
-      <c r="C49" s="155"/>
-      <c r="D49" s="156"/>
-      <c r="E49" s="157"/>
-      <c r="F49" s="158"/>
-      <c r="G49" s="159"/>
-      <c r="H49" s="160"/>
+      <c r="A49" s="121"/>
+      <c r="B49" s="122"/>
+      <c r="C49" s="123"/>
+      <c r="D49" s="124"/>
+      <c r="E49" s="125"/>
+      <c r="F49" s="126"/>
+      <c r="G49" s="127"/>
+      <c r="H49" s="128"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="129"/>
+      <c r="B50" s="130"/>
+      <c r="C50" s="131"/>
+      <c r="D50" s="132"/>
+      <c r="E50" s="133"/>
+      <c r="F50" s="134"/>
+      <c r="G50" s="135"/>
+      <c r="H50" s="136"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="137"/>
+      <c r="B51" s="138"/>
+      <c r="C51" s="139"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="141"/>
+      <c r="F51" s="142"/>
+      <c r="G51" s="143"/>
+      <c r="H51" s="144"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="145"/>
+      <c r="B52" s="146"/>
+      <c r="C52" s="147"/>
+      <c r="D52" s="148"/>
+      <c r="E52" s="149"/>
+      <c r="F52" s="150"/>
+      <c r="G52" s="151"/>
+      <c r="H52" s="152"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="153"/>
+      <c r="B53" s="154"/>
+      <c r="C53" s="155"/>
+      <c r="D53" s="156"/>
+      <c r="E53" s="157"/>
+      <c r="F53" s="158"/>
+      <c r="G53" s="159"/>
+      <c r="H53" s="160"/>
     </row>
   </sheetData>
 </worksheet>
